--- a/Assets/Tables/spirit.xlsx
+++ b/Assets/Tables/spirit.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADBD5B4-BF95-4831-B306-6290E2B01742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BB894-DF19-493E-9131-FA54F98FF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spirit" sheetId="3" r:id="rId1"/>
-    <sheet name="~참고타입" sheetId="6" r:id="rId2"/>
+    <sheet name="spirit" sheetId="3" r:id="rId1"/>
+    <sheet name="_참고타입" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,36 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SubName</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>PassiveSkillKey</t>
-  </si>
-  <si>
-    <t>SkillCard1Key</t>
-  </si>
-  <si>
-    <t>SkillCard2Key</t>
-  </si>
-  <si>
-    <t>SpecialSkillKey</t>
-  </si>
-  <si>
     <t>Guardian</t>
   </si>
   <si>
@@ -73,12 +43,6 @@
     <t>MagicGirl</t>
   </si>
   <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>IconName</t>
-  </si>
-  <si>
     <t>아가사</t>
   </si>
   <si>
@@ -479,6 +443,54 @@
   </si>
   <si>
     <t>_비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passiveSkillKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillCard1Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillCard2Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialSkillKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iconName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -806,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4811F26-2106-4A7C-8E8F-B1E8534C4CC1}">
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,43 +839,43 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -874,22 +886,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -900,22 +912,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -926,22 +938,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -952,22 +964,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -978,22 +990,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1004,22 +1016,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1030,22 +1042,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1056,22 +1068,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1082,22 +1094,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1108,22 +1120,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1134,22 +1146,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1160,22 +1172,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1186,22 +1198,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1212,22 +1224,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E16">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1238,22 +1250,22 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1264,19 +1276,19 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1287,19 +1299,19 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1310,19 +1322,19 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1333,22 +1345,22 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1359,19 +1371,19 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1382,22 +1394,22 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1408,22 +1420,22 @@
         <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1434,19 +1446,19 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -1457,22 +1469,22 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -1483,19 +1495,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -1506,19 +1518,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E28">
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -1529,22 +1541,22 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E29">
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1555,19 +1567,19 @@
         <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1578,19 +1590,19 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -1601,19 +1613,19 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -1624,19 +1636,19 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -1647,19 +1659,19 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -1670,22 +1682,22 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -1696,19 +1708,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -1719,19 +1731,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -1742,19 +1754,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -1765,19 +1777,19 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -1788,19 +1800,19 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -1811,19 +1823,19 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -1834,19 +1846,19 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -1857,19 +1869,19 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -1880,19 +1892,19 @@
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -1903,19 +1915,19 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -1926,19 +1938,19 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -1949,22 +1961,22 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="M47" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1998,30 +2010,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2030,30 +2042,30 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2062,30 +2074,30 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2094,24 +2106,24 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="I4">
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2120,18 +2132,18 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="I5">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2140,18 +2152,18 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>5</v>

--- a/Assets/Tables/spirit.xlsx
+++ b/Assets/Tables/spirit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3BB894-DF19-493E-9131-FA54F98FF1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96230508-CFA2-4515-8D40-1E0A8F47BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="152">
   <si>
     <t>Guardian</t>
   </si>
@@ -450,22 +450,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gender</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,6 +479,22 @@
   </si>
   <si>
     <t>iconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subNameKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4811F26-2106-4A7C-8E8F-B1E8534C4CC1}">
   <dimension ref="A2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -828,7 +832,7 @@
     <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
     <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.375" bestFit="1" customWidth="1"/>
@@ -845,37 +849,37 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>143</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>144</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>145</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>146</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>147</v>
-      </c>
-      <c r="K2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L2" t="s">
-        <v>149</v>
-      </c>
-      <c r="M2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -895,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="G3">
         <v>0</v>
